--- a/log/data_5o_dubins_only.xlsx
+++ b/log/data_5o_dubins_only.xlsx
@@ -542,12 +542,12 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.5e-05</t>
+          <t>5.3e-05</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.000376</t>
+          <t>0.000998</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -557,22 +557,22 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>9.5e-05</t>
+          <t>7.6e-05</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.000486</t>
+          <t>0.001127</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.089932</t>
+          <t>0.057757</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.168314</t>
+          <t>0.151649</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -592,12 +592,12 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>17.1878</t>
+          <t>12.3694</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>43.4982</t>
+          <t>37.059</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -630,12 +630,12 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>9e-06</t>
+          <t>2.5e-05</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.000427</t>
+          <t>0.000918</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -645,22 +645,22 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.000112</t>
+          <t>0.000116</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.000548</t>
+          <t>0.001059</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.085361</t>
+          <t>0.073849</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.166337</t>
+          <t>0.171616</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -680,12 +680,12 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.4463</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46.1167</t>
         </is>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -718,12 +718,12 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1e-05</t>
+          <t>4.4e-05</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.000409</t>
+          <t>0.001038</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -733,22 +733,22 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.000105</t>
+          <t>0.000114</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.000524</t>
+          <t>0.001196</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.084948</t>
+          <t>0.065652</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0.163438</t>
+          <t>0.18995</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.462</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46.2929</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -806,12 +806,12 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6e-06</t>
+          <t>5.4e-05</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.000384</t>
+          <t>0.001043</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -821,22 +821,22 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.000107</t>
+          <t>0.000113</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.000497</t>
+          <t>0.00121</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.077256</t>
+          <t>0.0588239</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>0.15725</t>
+          <t>0.155374</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.5334</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50.1612</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -894,12 +894,12 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1e-05</t>
+          <t>2.5e-05</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.000419</t>
+          <t>0.00112</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -909,22 +909,22 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.000108</t>
+          <t>7e-05</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.000537</t>
+          <t>0.001215</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.076598</t>
+          <t>0.056223</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.156548</t>
+          <t>0.155213</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -944,12 +944,12 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.3404</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32.8702</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -982,12 +982,12 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1.6e-05</t>
+          <t>1.4e-05</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.000406</t>
+          <t>0.001073</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -997,22 +997,22 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.000101</t>
+          <t>0.000114</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.000523</t>
+          <t>0.001201</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.094757</t>
+          <t>0.061147</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.176113</t>
+          <t>0.170804</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.5546</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46.602</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1070,12 +1070,12 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.3e-05</t>
+          <t>1.2e-05</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.000394</t>
+          <t>0.000881</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1085,22 +1085,22 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.000107</t>
+          <t>6.2e-05</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.000534</t>
+          <t>0.000955</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.0952389</t>
+          <t>0.057973</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0.179985</t>
+          <t>0.151479</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1120,12 +1120,12 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.1804</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35.1134</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1158,12 +1158,12 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.3e-05</t>
+          <t>8e-06</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.000392</t>
+          <t>0.001012</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1173,22 +1173,22 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.000103</t>
+          <t>0.000102</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.000508</t>
+          <t>0.001122</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.0890149</t>
+          <t>0.064444</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.167</t>
+          <t>0.156649</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1208,12 +1208,12 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.5815</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49.1996</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1246,12 +1246,12 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1.9e-05</t>
+          <t>1.5e-05</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.000384</t>
+          <t>0.000824</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1261,22 +1261,22 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9.9e-05</t>
+          <t>0.000107</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.000502</t>
+          <t>0.000946</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.086848</t>
+          <t>0.0633029</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>0.163005</t>
+          <t>0.175269</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1296,12 +1296,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.8301</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.7392</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1334,12 +1334,12 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.7e-05</t>
+          <t>4.7e-05</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.000396</t>
+          <t>0.000778</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1349,22 +1349,22 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>9.8e-05</t>
+          <t>6.7e-05</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.000511</t>
+          <t>0.000892</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.089651</t>
+          <t>0.056118</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>0.167725</t>
+          <t>0.148855</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1384,12 +1384,12 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.3403</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35.311</t>
         </is>
       </c>
     </row>
@@ -1422,12 +1422,12 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4e-06</t>
+          <t>2.4e-05</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.000359</t>
+          <t>0.000785</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1437,22 +1437,22 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>9.9e-05</t>
+          <t>0.000102</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.000462</t>
+          <t>0.000911</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.084375</t>
+          <t>0.067208</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>0.161568</t>
+          <t>0.159131</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1472,12 +1472,12 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>17.4794</t>
+          <t>18.614</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>43.702</t>
+          <t>47.1721</t>
         </is>
       </c>
     </row>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1510,12 +1510,12 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1.7e-05</t>
+          <t>4.6e-05</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.000366</t>
+          <t>0.000904</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1525,22 +1525,22 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.000107</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.000483</t>
+          <t>0.001057</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.097465</t>
+          <t>0.062155</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>0.17581</t>
+          <t>0.159128</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1560,12 +1560,12 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.6399</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.1669</t>
         </is>
       </c>
     </row>
@@ -1598,12 +1598,12 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.1e-05</t>
+          <t>1.7e-05</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.000364</t>
+          <t>0.000847</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1613,22 +1613,22 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.000102</t>
+          <t>4.7e-05</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.000477</t>
+          <t>0.000911</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.08744</t>
+          <t>0.059648</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0.165655</t>
+          <t>0.15055</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1686,12 +1686,12 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.8e-05</t>
+          <t>2.6e-05</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.000354</t>
+          <t>0.000931</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1701,22 +1701,22 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>9.3e-05</t>
+          <t>5.3e-05</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.000475</t>
+          <t>0.00101</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.0890419</t>
+          <t>0.053944</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>0.167369</t>
+          <t>0.143809</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1774,12 +1774,12 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1.7e-05</t>
+          <t>6.9e-05</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.000368</t>
+          <t>0.000739</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1789,22 +1789,22 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>9.8e-05</t>
+          <t>0.000102</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.000483</t>
+          <t>0.00091</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.096344</t>
+          <t>0.060193</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>0.174995</t>
+          <t>0.151952</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1824,12 +1824,12 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.8142</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.1612</t>
         </is>
       </c>
     </row>
@@ -1862,12 +1862,12 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.5e-05</t>
+          <t>6.6e-05</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.000378</t>
+          <t>0.001127</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1877,22 +1877,22 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.000166</t>
+          <t>9.7e-05</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.000559</t>
+          <t>0.00129</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.092273</t>
+          <t>0.059563</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.17182</t>
+          <t>0.155141</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>18.22</t>
+          <t>18.6654</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>46.7384</t>
+          <t>48.3903</t>
         </is>
       </c>
     </row>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1950,12 +1950,12 @@
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.6e-05</t>
+          <t>3e-05</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.000401</t>
+          <t>0.001125</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1965,22 +1965,22 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>9.7e-05</t>
+          <t>0.000155</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.000524</t>
+          <t>0.00131</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.0957569</t>
+          <t>0.061528</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>0.175488</t>
+          <t>0.171293</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2000,12 +2000,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.5888</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50.398</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -2038,12 +2038,12 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1e-05</t>
+          <t>2.1e-05</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.000366</t>
+          <t>0.001077</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2053,22 +2053,22 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>9.5e-05</t>
+          <t>0.00011</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.000471</t>
+          <t>0.001208</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.079788</t>
+          <t>0.066945</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>0.156064</t>
+          <t>0.157157</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2088,12 +2088,12 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.4431</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.848</t>
         </is>
       </c>
     </row>
@@ -2115,7 +2115,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2126,12 +2126,12 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.4e-05</t>
+          <t>3.9e-05</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.00038</t>
+          <t>0.001008</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2141,22 +2141,22 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>9.3e-05</t>
+          <t>0.000109</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.000497</t>
+          <t>0.001156</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.087188</t>
+          <t>0.065777</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>0.164638</t>
+          <t>0.159512</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2176,12 +2176,12 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.7096</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.9877</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2214,12 +2214,12 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.9e-05</t>
+          <t>2.5e-05</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.000372</t>
+          <t>0.001053</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2229,22 +2229,22 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.000101</t>
+          <t>0.000119</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.000492</t>
+          <t>0.001197</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.091261</t>
+          <t>0.0600859</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>0.169487</t>
+          <t>0.156412</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.8657</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48.2687</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -2302,12 +2302,12 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.5e-05</t>
+          <t>4.8e-05</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.000383</t>
+          <t>0.000796</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2317,22 +2317,22 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.000113</t>
+          <t>0.000103</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.000511</t>
+          <t>0.000947</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.084839</t>
+          <t>0.0612799</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>0.162769</t>
+          <t>0.153815</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -2352,12 +2352,12 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.4672</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.3561</t>
         </is>
       </c>
     </row>
@@ -2379,7 +2379,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2390,12 +2390,12 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.6e-05</t>
+          <t>2.3e-05</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.000396</t>
+          <t>0.000855</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2405,22 +2405,22 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.000104</t>
+          <t>0.000108</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.000516</t>
+          <t>0.000986</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.084457</t>
+          <t>0.065436</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>0.163879</t>
+          <t>0.159556</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -2440,12 +2440,12 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.6693</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50.1756</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2478,12 +2478,12 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>8e-06</t>
+          <t>4.5e-05</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.000347</t>
+          <t>0.000727</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -2493,22 +2493,22 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>9.7e-05</t>
+          <t>6.8e-05</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.000452</t>
+          <t>0.00084</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.085259</t>
+          <t>0.0572149</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.16387</t>
+          <t>0.154137</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.4509</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35.2916</t>
         </is>
       </c>
     </row>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2566,12 +2566,12 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.4e-05</t>
+          <t>7.4e-05</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.000367</t>
+          <t>0.000924</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2581,22 +2581,22 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.000101</t>
+          <t>0.00011</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.000482</t>
+          <t>0.001108</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.087158</t>
+          <t>0.062988</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>0.16513</t>
+          <t>0.154772</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -2616,12 +2616,12 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.7031</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.7741</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2654,12 +2654,12 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1.7e-05</t>
+          <t>6.3e-05</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.000389</t>
+          <t>0.000833</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2669,22 +2669,22 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>9.7e-05</t>
+          <t>0.000111</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.000503</t>
+          <t>0.001007</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.084305</t>
+          <t>0.067459</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>0.161636</t>
+          <t>0.179102</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2704,12 +2704,12 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.5083</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45.4069</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2742,12 +2742,12 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2.2e-05</t>
+          <t>2.8e-05</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.000372</t>
+          <t>0.000821</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2757,22 +2757,22 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>9.8e-05</t>
+          <t>0.000118</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.000492</t>
+          <t>0.000967</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.095267</t>
+          <t>0.066265</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.173825</t>
+          <t>0.159939</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2792,12 +2792,12 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.7007</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.0616</t>
         </is>
       </c>
     </row>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2830,12 +2830,12 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.6e-05</t>
+          <t>3.2e-05</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.000377</t>
+          <t>0.000867</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2845,22 +2845,22 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>6.4e-05</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.000493</t>
+          <t>0.000963</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.085541</t>
+          <t>0.056352</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>0.164641</t>
+          <t>0.147295</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2880,12 +2880,12 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.3115</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37.2514</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2918,12 +2918,12 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.5e-05</t>
+          <t>2.4e-05</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.000416</t>
+          <t>0.001045</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2933,22 +2933,22 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.000102</t>
+          <t>0.000107</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.000533</t>
+          <t>0.001176</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.085619</t>
+          <t>0.0626769</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.164245</t>
+          <t>0.155568</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2968,12 +2968,12 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.6206</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45.8771</t>
         </is>
       </c>
     </row>
@@ -3006,12 +3006,12 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1.4e-05</t>
+          <t>3.3e-05</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.000364</t>
+          <t>0.000875</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3021,22 +3021,22 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>9.7e-05</t>
+          <t>0.000111</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.000475</t>
+          <t>0.001019</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.084561</t>
+          <t>0.061318</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>0.162131</t>
+          <t>0.152308</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3056,12 +3056,12 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>17.1959</t>
+          <t>18.6565</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>43.6819</t>
+          <t>48.1918</t>
         </is>
       </c>
     </row>
@@ -3083,7 +3083,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3094,12 +3094,12 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.2e-05</t>
+          <t>6.8e-05</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.000378</t>
+          <t>0.000843</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -3109,22 +3109,22 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>9.7e-05</t>
+          <t>6.4e-05</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.000487</t>
+          <t>0.000975</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.078559</t>
+          <t>0.0619599</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.156716</t>
+          <t>0.154371</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -3144,12 +3144,12 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.4795</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43.3874</t>
         </is>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3182,12 +3182,12 @@
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1.8e-05</t>
+          <t>0.000118</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.000352</t>
+          <t>0.00079</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -3197,22 +3197,22 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>9.5e-05</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.000465</t>
+          <t>0.001008</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.088802</t>
+          <t>0.0710879</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>0.167927</t>
+          <t>0.164479</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3232,12 +3232,12 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.5203</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.868</t>
         </is>
       </c>
     </row>
@@ -3270,12 +3270,12 @@
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1.5e-05</t>
+          <t>1.4e-05</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.000391</t>
+          <t>0.000835</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -3285,22 +3285,22 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>9.6e-05</t>
+          <t>0.000111</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.000502</t>
+          <t>0.00096</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.090459</t>
+          <t>0.056908</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.168277</t>
+          <t>0.149399</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -3320,12 +3320,12 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>17.3012</t>
+          <t>18.6719</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>49.5513</t>
+          <t>49.6945</t>
         </is>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3358,12 +3358,12 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.3e-05</t>
+          <t>2.9e-05</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.000369</t>
+          <t>0.001021</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -3373,22 +3373,22 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>9.7e-05</t>
+          <t>0.000118</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.000479</t>
+          <t>0.001168</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.079494</t>
+          <t>0.0617089</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>0.157526</t>
+          <t>0.174543</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -3408,12 +3408,12 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.6698</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46.8307</t>
         </is>
       </c>
     </row>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3446,12 +3446,12 @@
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.4e-05</t>
+          <t>8.4e-05</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.000376</t>
+          <t>0.000895</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -3461,22 +3461,22 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.000102</t>
+          <t>6.5e-05</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.000492</t>
+          <t>0.001044</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.088936</t>
+          <t>0.063075</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>0.168286</t>
+          <t>0.16169</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3496,12 +3496,12 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.2893</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32.5168</t>
         </is>
       </c>
     </row>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3534,12 +3534,12 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1.2e-05</t>
+          <t>4.3e-05</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.000362</t>
+          <t>0.000881</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3549,22 +3549,22 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>9.9e-05</t>
+          <t>0.000105</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.000473</t>
+          <t>0.001029</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.083088</t>
+          <t>0.062899</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>0.161598</t>
+          <t>0.155363</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3584,12 +3584,12 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.8739</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45.6039</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3622,12 +3622,12 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.6e-05</t>
+          <t>3.5e-05</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.000385</t>
+          <t>0.000744</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3637,22 +3637,22 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>9.8e-05</t>
+          <t>6e-05</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.000499</t>
+          <t>0.000839</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.083242</t>
+          <t>0.056514</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>0.160451</t>
+          <t>0.149919</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -3672,12 +3672,12 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.2198</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38.0684</t>
         </is>
       </c>
     </row>
@@ -3710,12 +3710,12 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.3e-05</t>
+          <t>3.2e-05</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0.000357</t>
+          <t>0.0009</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -3725,22 +3725,22 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>9.5e-05</t>
+          <t>0.000111</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0.000465</t>
+          <t>0.001043</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0.056649</t>
+          <t>0.0598189</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>0.134649</t>
+          <t>0.154599</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3760,12 +3760,12 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>17.4159</t>
+          <t>18.4674</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>44.6702</t>
+          <t>46.5128</t>
         </is>
       </c>
     </row>
@@ -3787,7 +3787,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3798,12 +3798,12 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1.4e-05</t>
+          <t>3.2e-05</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.000364</t>
+          <t>0.001044</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3813,22 +3813,22 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>9.4e-05</t>
+          <t>0.000104</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0.000472</t>
+          <t>0.00118</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0.082908</t>
+          <t>0.062393</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.159736</t>
+          <t>0.154593</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -3848,12 +3848,12 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.2485</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44.4237</t>
         </is>
       </c>
     </row>
@@ -3875,7 +3875,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3886,12 +3886,12 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2.6e-05</t>
+          <t>4.2e-05</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.000384</t>
+          <t>0.000849</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3901,22 +3901,22 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.000109</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.00051</t>
+          <t>0.001</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>0.0990849</t>
+          <t>0.0604379</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0.178352</t>
+          <t>0.155015</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3936,12 +3936,12 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.6837</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.4917</t>
         </is>
       </c>
     </row>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3974,12 +3974,12 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1.7e-05</t>
+          <t>2.5e-05</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.000382</t>
+          <t>0.000737</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3989,22 +3989,22 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>9.6e-05</t>
+          <t>5.9e-05</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.000495</t>
+          <t>0.000821</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.096492</t>
+          <t>0.057571</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.181002</t>
+          <t>0.1517</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -4024,12 +4024,12 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.3956</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35.7661</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4062,12 +4062,12 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.5e-05</t>
+          <t>3.5e-05</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.000401</t>
+          <t>0.001313</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -4077,22 +4077,22 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>0.000103</t>
+          <t>0.000107</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.000519</t>
+          <t>0.001455</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>0.083717</t>
+          <t>0.066281</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>0.162769</t>
+          <t>0.161239</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -4112,12 +4112,12 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.4689</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49.2533</t>
         </is>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -4150,12 +4150,12 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1.1e-05</t>
+          <t>3.3e-05</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.000387</t>
+          <t>0.000891</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4165,22 +4165,22 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0.000108</t>
+          <t>0.000111</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.000506</t>
+          <t>0.001035</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>0.085767</t>
+          <t>0.065998</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>0.163365</t>
+          <t>0.158257</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -4200,12 +4200,12 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.7134</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46.369</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4238,12 +4238,12 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>9e-06</t>
+          <t>1e-05</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>0.00037</t>
+          <t>0.000807</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -4253,22 +4253,22 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0.00011</t>
+          <t>6.4e-05</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0.000489</t>
+          <t>0.000881</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>0.081186</t>
+          <t>0.055568</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>0.158889</t>
+          <t>0.145757</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -4288,12 +4288,12 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.2608</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37.0383</t>
         </is>
       </c>
     </row>
@@ -4326,12 +4326,12 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>6.1e-05</t>
+          <t>1.5e-05</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.000395</t>
+          <t>0.000834</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4341,22 +4341,22 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>9.6e-05</t>
+          <t>4.7e-05</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.000552</t>
+          <t>0.000896</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>0.100961</t>
+          <t>0.053762</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>0.17911</t>
+          <t>0.145114</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -4414,12 +4414,12 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1.2e-05</t>
+          <t>5.4e-05</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.000385</t>
+          <t>0.000749</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4429,22 +4429,22 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>9.8e-05</t>
+          <t>4.8e-05</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0.000495</t>
+          <t>0.000851</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0.086249</t>
+          <t>0.0591209</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>0.165311</t>
+          <t>0.170558</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4502,12 +4502,12 @@
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1.7e-05</t>
+          <t>0.000104</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.000408</t>
+          <t>0.001149</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
@@ -4517,22 +4517,22 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0.000108</t>
+          <t>0.00011</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.000533</t>
+          <t>0.001363</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>0.085731</t>
+          <t>0.0624499</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>0.164146</t>
+          <t>0.158138</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -4552,12 +4552,12 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.4737</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.1145</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4590,12 +4590,12 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1.3e-05</t>
+          <t>2.5e-05</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.000386</t>
+          <t>0.001039</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -4605,22 +4605,22 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>9.8e-05</t>
+          <t>0.000112</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0.000497</t>
+          <t>0.001176</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>0.08467</t>
+          <t>0.062314</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>0.166267</t>
+          <t>0.155694</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -4640,12 +4640,12 @@
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.5595</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.7054</t>
         </is>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -4678,12 +4678,12 @@
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2.1e-05</t>
+          <t>3e-05</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0.000378</t>
+          <t>0.000621</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -4693,22 +4693,22 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>9.6e-05</t>
+          <t>6.3e-05</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0.000495</t>
+          <t>0.000714</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0.092265</t>
+          <t>0.0546689</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>0.171654</t>
+          <t>0.146606</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -4728,12 +4728,12 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.2729</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34.5626</t>
         </is>
       </c>
     </row>
@@ -4755,7 +4755,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -4766,12 +4766,12 @@
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>2.2e-05</t>
+          <t>1.2e-05</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>0.000404</t>
+          <t>0.00087</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4781,22 +4781,22 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>9.6e-05</t>
+          <t>7.2e-05</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>0.000522</t>
+          <t>0.000954</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>0.0925609</t>
+          <t>0.055986</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>0.171172</t>
+          <t>0.149328</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -4816,12 +4816,12 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.3254</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36.2438</t>
         </is>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4854,12 +4854,12 @@
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>1.6e-05</t>
+          <t>4.4e-05</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.000404</t>
+          <t>0.000927</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4869,22 +4869,22 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0.000102</t>
+          <t>0.000107</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0.000522</t>
+          <t>0.001078</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>0.088886</t>
+          <t>0.0579619</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>0.167068</t>
+          <t>0.151367</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4904,12 +4904,12 @@
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.7413</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46.7141</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4942,12 +4942,12 @@
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>4.1e-05</t>
+          <t>2.3e-05</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.000366</t>
+          <t>0.000883</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -4957,22 +4957,22 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0.000101</t>
+          <t>6.3e-05</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0.000508</t>
+          <t>0.000969</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>0.0904</t>
+          <t>0.057463</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>0.168077</t>
+          <t>0.162355</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -4992,12 +4992,12 @@
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.4009</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37.2516</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -5030,12 +5030,12 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>1.3e-05</t>
+          <t>3e-05</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>0.000381</t>
+          <t>0.000968</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5045,22 +5045,22 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>9.4e-05</t>
+          <t>0.000104</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>0.000488</t>
+          <t>0.001102</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>0.087306</t>
+          <t>0.06149</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>0.165336</t>
+          <t>0.15393</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -5080,12 +5080,12 @@
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.4272</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.9267</t>
         </is>
       </c>
     </row>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -5118,12 +5118,12 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1.7e-05</t>
+          <t>4.5e-05</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>0.000374</t>
+          <t>0.001086</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -5133,22 +5133,22 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>9.7e-05</t>
+          <t>6.6e-05</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.000488</t>
+          <t>0.001197</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>0.085376</t>
+          <t>0.05827</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>0.163106</t>
+          <t>0.155478</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -5168,12 +5168,12 @@
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.4285</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36.2398</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -5206,12 +5206,12 @@
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.5e-05</t>
+          <t>8.4e-05</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>0.000383</t>
+          <t>0.000951</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5221,22 +5221,22 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>9.5e-05</t>
+          <t>0.000109</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0.000493</t>
+          <t>0.001144</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>0.088085</t>
+          <t>0.057098</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>0.165578</t>
+          <t>0.149208</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5256,12 +5256,12 @@
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.5105</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46.9692</t>
         </is>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -5294,12 +5294,12 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>2.4e-05</t>
+          <t>5.8e-05</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0.000395</t>
+          <t>0.000946</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -5309,22 +5309,22 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>0.000103</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>0.000522</t>
+          <t>0.001104</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>0.091323</t>
+          <t>0.064603</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>0.170834</t>
+          <t>0.158823</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -5344,12 +5344,12 @@
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.3061</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45.5157</t>
         </is>
       </c>
     </row>
@@ -5371,7 +5371,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -5382,12 +5382,12 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1.3e-05</t>
+          <t>1.2e-05</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>0.000364</t>
+          <t>0.000889</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -5397,22 +5397,22 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>0.000103</t>
+          <t>0.000101</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>0.00048</t>
+          <t>0.001002</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>0.086483</t>
+          <t>0.0647979</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>0.165344</t>
+          <t>0.160064</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -5432,12 +5432,12 @@
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.7716</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.4817</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -5470,12 +5470,12 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>4.3e-05</t>
+          <t>7.3e-05</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>0.000391</t>
+          <t>0.000895</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -5485,22 +5485,22 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>9.6e-05</t>
+          <t>7.8e-05</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>0.00053</t>
+          <t>0.001046</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>0.0959439</t>
+          <t>0.057274</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>0.173453</t>
+          <t>0.152235</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -5520,12 +5520,12 @@
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.2888</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35.7122</t>
         </is>
       </c>
     </row>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -5558,12 +5558,12 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>1e-05</t>
+          <t>0.000108</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>0.000391</t>
+          <t>0.001083</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
@@ -5573,22 +5573,22 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.000111</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>0.000501</t>
+          <t>0.001302</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>0.080604</t>
+          <t>0.0661799</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>0.159135</t>
+          <t>0.164289</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -5608,12 +5608,12 @@
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.4791</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46.4002</t>
         </is>
       </c>
     </row>
@@ -5635,7 +5635,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -5646,12 +5646,12 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>2.4e-05</t>
+          <t>4.7e-05</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0.000366</t>
+          <t>0.000951</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5666,17 +5666,17 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>0.00049</t>
+          <t>0.001098</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>0.09344</t>
+          <t>0.060787</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>0.172098</t>
+          <t>0.153321</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -5696,12 +5696,12 @@
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.8073</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50.5624</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5734,12 +5734,12 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1.3e-05</t>
+          <t>1.6e-05</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>0.000377</t>
+          <t>0.000698</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5749,22 +5749,22 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>0.000108</t>
+          <t>0.000102</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>0.000498</t>
+          <t>0.000816</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>0.086418</t>
+          <t>0.067686</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>0.163998</t>
+          <t>0.158129</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5784,12 +5784,12 @@
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.8149</t>
         </is>
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49.968</t>
         </is>
       </c>
     </row>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5822,12 +5822,12 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.8e-05</t>
+          <t>1.3e-05</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0.000362</t>
+          <t>0.000808</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -5837,22 +5837,22 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>9.9e-05</t>
+          <t>0.000115</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>0.000479</t>
+          <t>0.000936</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>0.093937</t>
+          <t>0.058878</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>0.173471</t>
+          <t>0.15015</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5872,12 +5872,12 @@
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.7693</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46.5395</t>
         </is>
       </c>
     </row>
@@ -5899,7 +5899,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5910,12 +5910,12 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1.5e-05</t>
+          <t>3.5e-05</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>0.00037</t>
+          <t>0.001156</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -5925,22 +5925,22 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>9.8e-05</t>
+          <t>0.000114</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>0.000483</t>
+          <t>0.001305</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>0.090888</t>
+          <t>0.068172</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>0.169678</t>
+          <t>0.161148</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
@@ -5960,12 +5960,12 @@
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.6443</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46.1955</t>
         </is>
       </c>
     </row>
@@ -5998,12 +5998,12 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2.3e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0.000361</t>
+          <t>0.000807</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -6013,22 +6013,22 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>9.7e-05</t>
+          <t>9.9e-05</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>0.000481</t>
+          <t>0.000983</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>0.0662009</t>
+          <t>0.061751</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>0.145467</t>
+          <t>0.157866</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -6048,12 +6048,12 @@
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>17.3006</t>
+          <t>18.3562</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>42.729</t>
+          <t>45.7485</t>
         </is>
       </c>
     </row>
@@ -6075,7 +6075,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -6086,12 +6086,12 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.000117</t>
+          <t>0.000111</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>0.000374</t>
+          <t>0.000847</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6101,22 +6101,22 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>9.9e-05</t>
+          <t>0.000119</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>0.00059</t>
+          <t>0.001077</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>0.086459</t>
+          <t>0.077428</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>0.165061</t>
+          <t>0.180444</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
@@ -6136,12 +6136,12 @@
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.4982</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46.5023</t>
         </is>
       </c>
     </row>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -6174,12 +6174,12 @@
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr">
         <is>
-          <t>3e-05</t>
+          <t>1.2e-05</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0.000376</t>
+          <t>0.000956</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -6189,22 +6189,22 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>9.7e-05</t>
+          <t>0.000108</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>0.000503</t>
+          <t>0.001076</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>0.0995529</t>
+          <t>0.058584</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>0.179502</t>
+          <t>0.151764</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -6224,12 +6224,12 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.5884</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45.837</t>
         </is>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -6262,12 +6262,12 @@
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>2.1e-05</t>
+          <t>1.2e-05</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>0.00039</t>
+          <t>0.001127</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -6277,22 +6277,22 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>9.7e-05</t>
+          <t>0.000106</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>0.000508</t>
+          <t>0.001245</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>0.089658</t>
+          <t>0.060545</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>0.168099</t>
+          <t>0.150617</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
@@ -6312,12 +6312,12 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.687</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46.3728</t>
         </is>
       </c>
     </row>
@@ -6339,7 +6339,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -6350,12 +6350,12 @@
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr">
         <is>
-          <t>2.1e-05</t>
+          <t>2.2e-05</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0.000408</t>
+          <t>0.000959</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -6370,17 +6370,17 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>0.00053</t>
+          <t>0.001082</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>0.085587</t>
+          <t>0.05959</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>0.164607</t>
+          <t>0.15362</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
@@ -6400,12 +6400,12 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.5562</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.7255</t>
         </is>
       </c>
     </row>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -6438,12 +6438,12 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>2.4e-05</t>
+          <t>6.2e-05</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>0.000367</t>
+          <t>0.000906</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -6453,22 +6453,22 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>9.5e-05</t>
+          <t>9.8e-05</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>0.000486</t>
+          <t>0.001066</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>0.096735</t>
+          <t>0.0613339</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>0.175037</t>
+          <t>0.156993</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
@@ -6488,12 +6488,12 @@
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.6451</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>49.0571</t>
         </is>
       </c>
     </row>
@@ -6526,12 +6526,12 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>2.5e-05</t>
+          <t>1.7e-05</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>0.000353</t>
+          <t>0.000962</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -6541,22 +6541,22 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>9.3e-05</t>
+          <t>9.7e-05</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>0.000471</t>
+          <t>0.001076</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>0.068023</t>
+          <t>0.0679819</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>0.146376</t>
+          <t>0.162021</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
@@ -6576,12 +6576,12 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>17.3201</t>
+          <t>17.4294</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>42.9697</t>
+          <t>45.853</t>
         </is>
       </c>
     </row>
@@ -6603,7 +6603,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -6614,12 +6614,12 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1.2e-05</t>
+          <t>1.6e-05</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>0.000373</t>
+          <t>0.000878</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -6629,22 +6629,22 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>7.2e-05</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>0.000485</t>
+          <t>0.000966</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>0.089393</t>
+          <t>0.056692</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>0.167266</t>
+          <t>0.148884</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
@@ -6664,12 +6664,12 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.206</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35.173</t>
         </is>
       </c>
     </row>
@@ -6691,7 +6691,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -6702,12 +6702,12 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>2.1e-05</t>
+          <t>3e-05</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>0.000381</t>
+          <t>0.000779</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -6717,22 +6717,22 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>6.3e-05</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>0.000502</t>
+          <t>0.000872</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>0.089368</t>
+          <t>0.059739</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>0.167197</t>
+          <t>0.154147</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
@@ -6752,12 +6752,12 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.3219</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34.173</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -6790,12 +6790,12 @@
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1.3e-05</t>
+          <t>3.8e-05</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>0.000369</t>
+          <t>0.001292</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -6805,22 +6805,22 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>9.5e-05</t>
+          <t>0.000123</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>0.000477</t>
+          <t>0.001453</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>0.084673</t>
+          <t>0.083061</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0.162151</t>
+          <t>0.184513</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
@@ -6840,12 +6840,12 @@
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.7138</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.7531</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -6878,12 +6878,12 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.9e-05</t>
+          <t>7.4e-05</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>0.000383</t>
+          <t>0.000916</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -6893,22 +6893,22 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>9.8e-05</t>
+          <t>6.7e-05</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>0.0005</t>
+          <t>0.001057</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>0.097053</t>
+          <t>0.058635</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>0.176276</t>
+          <t>0.153482</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
@@ -6928,12 +6928,12 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.2257</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37.7409</t>
         </is>
       </c>
     </row>
@@ -6955,7 +6955,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -6966,12 +6966,12 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>2.4e-05</t>
+          <t>0.000105</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0.000381</t>
+          <t>0.001064</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
@@ -6981,22 +6981,22 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>7.5e-05</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>0.000505</t>
+          <t>0.001244</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>0.095301</t>
+          <t>0.0598239</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>0.174925</t>
+          <t>0.157318</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
@@ -7016,12 +7016,12 @@
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.5705</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38.2986</t>
         </is>
       </c>
     </row>
@@ -7054,12 +7054,12 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1.3e-05</t>
+          <t>5.1e-05</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0.000385</t>
+          <t>0.000878</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -7069,22 +7069,22 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>0.000179</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>0.000577</t>
+          <t>0.001029</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>0.092944</t>
+          <t>0.062812</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>0.170662</t>
+          <t>0.154671</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
@@ -7104,12 +7104,12 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>18.175</t>
+          <t>18.4297</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>43.8827</t>
+          <t>45.6754</t>
         </is>
       </c>
     </row>
@@ -7142,12 +7142,12 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>2.3e-05</t>
+          <t>6.5e-05</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0.00037</t>
+          <t>0.001056</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -7157,22 +7157,22 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>0.000179</t>
+          <t>6.6e-05</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>0.000572</t>
+          <t>0.001187</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>0.108755</t>
+          <t>0.058738</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>0.189721</t>
+          <t>0.158483</t>
         </is>
       </c>
       <c r="N77" t="inlineStr">
@@ -7192,12 +7192,12 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>18.4434</t>
+          <t>12.2438</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>44.9363</t>
+          <t>33.4586</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -7230,12 +7230,12 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1.8e-05</t>
+          <t>6.6e-05</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0.000427</t>
+          <t>0.001058</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -7245,22 +7245,22 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>0.000116</t>
+          <t>0.0001</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>0.000561</t>
+          <t>0.001224</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>0.0898</t>
+          <t>0.0657799</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>0.168022</t>
+          <t>0.163039</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
@@ -7280,12 +7280,12 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.7259</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46.6087</t>
         </is>
       </c>
     </row>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -7318,12 +7318,12 @@
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1e-05</t>
+          <t>3.5e-05</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>0.00036</t>
+          <t>0.001172</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -7333,22 +7333,22 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>9.6e-05</t>
+          <t>0.000102</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>0.000466</t>
+          <t>0.001309</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>0.088463</t>
+          <t>0.059742</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>0.165929</t>
+          <t>0.155301</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
@@ -7368,12 +7368,12 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.5909</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45.5341</t>
         </is>
       </c>
     </row>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -7406,12 +7406,12 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1.1e-05</t>
+          <t>1.4e-05</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0.000369</t>
+          <t>0.000955</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -7421,22 +7421,22 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>9.6e-05</t>
+          <t>6.2e-05</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>0.000476</t>
+          <t>0.001031</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>0.087648</t>
+          <t>0.0516179</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>0.164676</t>
+          <t>0.144361</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
@@ -7456,12 +7456,12 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.3625</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34.4322</t>
         </is>
       </c>
     </row>
@@ -7483,7 +7483,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -7494,12 +7494,12 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>2.5e-05</t>
+          <t>8.9e-05</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.00069</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -7509,22 +7509,22 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>0.000104</t>
+          <t>0.00011</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>0.000529</t>
+          <t>0.000889</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>0.092039</t>
+          <t>0.058947</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>0.171317</t>
+          <t>0.174679</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -7544,12 +7544,12 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.7395</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48.3371</t>
         </is>
       </c>
     </row>
@@ -7571,7 +7571,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -7582,12 +7582,12 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1.1e-05</t>
+          <t>6.7e-05</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>0.00036</t>
+          <t>0.000875</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -7597,22 +7597,22 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>9.7e-05</t>
+          <t>6.3e-05</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>0.000468</t>
+          <t>0.001005</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>0.0834371</t>
+          <t>0.04955</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>0.160935</t>
+          <t>0.141759</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -7632,12 +7632,12 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.4361</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35.5875</t>
         </is>
       </c>
     </row>
@@ -7670,12 +7670,12 @@
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
-          <t>2.2e-05</t>
+          <t>6.4e-05</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>0.000408</t>
+          <t>0.001136</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -7685,22 +7685,22 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>0.000102</t>
+          <t>0.000105</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>0.000532</t>
+          <t>0.001305</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>0.093505</t>
+          <t>0.065798</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>0.173383</t>
+          <t>0.162802</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
@@ -7720,12 +7720,12 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>17.3172</t>
+          <t>18.4492</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>43.1347</t>
+          <t>47.3132</t>
         </is>
       </c>
     </row>
@@ -7747,7 +7747,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -7758,12 +7758,12 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>1.7e-05</t>
+          <t>0.000116</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>0.000394</t>
+          <t>0.000824</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -7773,22 +7773,22 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>9.3e-05</t>
+          <t>0.000108</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>0.000504</t>
+          <t>0.001048</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>0.084422</t>
+          <t>0.0635709</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>0.161917</t>
+          <t>0.15884</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -7808,12 +7808,12 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.4944</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46.1762</t>
         </is>
       </c>
     </row>
@@ -7835,7 +7835,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -7846,12 +7846,12 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>1.6e-05</t>
+          <t>6.9e-05</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>0.000395</t>
+          <t>0.001018</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -7861,22 +7861,22 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>0.000102</t>
+          <t>0.000103</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>0.000513</t>
+          <t>0.00119</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>0.090808</t>
+          <t>0.0587049</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>0.169651</t>
+          <t>0.151494</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
@@ -7896,12 +7896,12 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.6346</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.4496</t>
         </is>
       </c>
     </row>
@@ -7923,7 +7923,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -7934,12 +7934,12 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>3e-05</t>
+          <t>7e-05</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>0.000387</t>
+          <t>0.000767</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
@@ -7949,22 +7949,22 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>0.000101</t>
+          <t>0.000112</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>0.000518</t>
+          <t>0.000949</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>0.0932309</t>
+          <t>0.067515</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>0.171577</t>
+          <t>0.160598</t>
         </is>
       </c>
       <c r="N86" t="inlineStr">
@@ -7984,12 +7984,12 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.4529</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46.6842</t>
         </is>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -8022,12 +8022,12 @@
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2.3e-05</t>
+          <t>7.7e-05</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>0.00038</t>
+          <t>0.000867</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -8037,22 +8037,22 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.000113</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>0.000503</t>
+          <t>0.001057</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>0.085202</t>
+          <t>0.0608689</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>0.163465</t>
+          <t>0.15212</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
@@ -8072,12 +8072,12 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.6648</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.4766</t>
         </is>
       </c>
     </row>
@@ -8099,7 +8099,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -8110,12 +8110,12 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>1.1e-05</t>
+          <t>8.9e-05</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>0.000354</t>
+          <t>0.00069</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -8125,22 +8125,22 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>0.000101</t>
+          <t>6.4e-05</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>0.000466</t>
+          <t>0.000843</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>0.084679</t>
+          <t>0.061051</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>0.163328</t>
+          <t>0.157761</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
@@ -8160,12 +8160,12 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.3304</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34.3182</t>
         </is>
       </c>
     </row>
@@ -8198,12 +8198,12 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>1.7e-05</t>
+          <t>2.8e-05</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>0.000383</t>
+          <t>0.00106</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -8213,22 +8213,22 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>0.000101</t>
+          <t>8.1e-05</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>0.000501</t>
+          <t>0.001169</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>0.0767679</t>
+          <t>0.059025</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>0.156125</t>
+          <t>0.175972</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -8248,12 +8248,12 @@
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>17.1902</t>
+          <t>12.3666</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>40.8459</t>
+          <t>34.9883</t>
         </is>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -8286,12 +8286,12 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>1.3e-05</t>
+          <t>0.000106</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>0.000371</t>
+          <t>0.000669</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8301,22 +8301,22 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>9.6e-05</t>
+          <t>0.000106</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>0.00048</t>
+          <t>0.000881</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>0.092103</t>
+          <t>0.0719299</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>0.170761</t>
+          <t>0.174103</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
@@ -8336,12 +8336,12 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17.5363</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.0508</t>
         </is>
       </c>
     </row>
@@ -8363,7 +8363,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -8374,12 +8374,12 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1.9e-05</t>
+          <t>3e-05</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>0.000372</t>
+          <t>0.000895</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -8389,22 +8389,22 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>9.3e-05</t>
+          <t>0.000107</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>0.000484</t>
+          <t>0.001032</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>0.087854</t>
+          <t>0.070208</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>0.173368</t>
+          <t>0.168315</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
@@ -8424,12 +8424,12 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.6283</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50.5698</t>
         </is>
       </c>
     </row>
@@ -8451,7 +8451,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -8462,12 +8462,12 @@
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr">
         <is>
-          <t>1.1e-05</t>
+          <t>5.4e-05</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0.000457</t>
+          <t>0.00075</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -8477,22 +8477,22 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>9.7e-05</t>
+          <t>0.00011</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>0.000565</t>
+          <t>0.000914</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>0.084918</t>
+          <t>0.0642739</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>0.162033</t>
+          <t>0.161093</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -8512,12 +8512,12 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.7386</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47.8682</t>
         </is>
       </c>
     </row>
@@ -8539,7 +8539,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -8550,12 +8550,12 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1.4e-05</t>
+          <t>8.5e-05</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0.000372</t>
+          <t>0.000662</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -8565,22 +8565,22 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>9.3e-05</t>
+          <t>0.000104</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>0.000479</t>
+          <t>0.000851</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>0.084413</t>
+          <t>0.0663559</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>0.161667</t>
+          <t>0.163139</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
@@ -8600,12 +8600,12 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.9093</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46.8387</t>
         </is>
       </c>
     </row>
@@ -8627,7 +8627,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -8638,12 +8638,12 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1.7e-05</t>
+          <t>9.7e-05</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0.000374</t>
+          <t>0.000964</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -8653,22 +8653,22 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>0.000102</t>
+          <t>6.2e-05</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>0.000493</t>
+          <t>0.001123</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>0.0872499</t>
+          <t>0.053034</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>0.167269</t>
+          <t>0.15141</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
@@ -8688,12 +8688,12 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.3259</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35.9473</t>
         </is>
       </c>
     </row>
@@ -8726,12 +8726,12 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2.9e-05</t>
+          <t>1.6e-05</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>0.000385</t>
+          <t>0.000927</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -8741,22 +8741,22 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>9.4e-05</t>
+          <t>0.000104</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>0.000508</t>
+          <t>0.001047</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>0.090683</t>
+          <t>0.0614449</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>0.169243</t>
+          <t>0.157668</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
@@ -8776,12 +8776,12 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>17.301</t>
+          <t>18.7332</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>45.9092</t>
+          <t>46.1138</t>
         </is>
       </c>
     </row>
@@ -8803,7 +8803,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -8814,12 +8814,12 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1e-05</t>
+          <t>3.2e-05</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>0.000386</t>
+          <t>0.000847</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -8829,22 +8829,22 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>9.7e-05</t>
+          <t>0.000105</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>0.000493</t>
+          <t>0.000984</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>0.086988</t>
+          <t>0.0610899</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>0.16469</t>
+          <t>0.155297</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
@@ -8864,12 +8864,12 @@
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.7375</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45.9726</t>
         </is>
       </c>
     </row>
@@ -8891,7 +8891,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -8902,12 +8902,12 @@
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1.2e-05</t>
+          <t>2.3e-05</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>0.000377</t>
+          <t>0.000916</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -8922,17 +8922,17 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>0.000486</t>
+          <t>0.001036</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>0.083674</t>
+          <t>0.0732289</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>0.161796</t>
+          <t>0.183776</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
@@ -8952,12 +8952,12 @@
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.237</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45.1796</t>
         </is>
       </c>
     </row>
@@ -8979,7 +8979,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -8990,12 +8990,12 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>2.2e-05</t>
+          <t>1.9e-05</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>0.000401</t>
+          <t>0.000847</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -9005,22 +9005,22 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.000103</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>0.000523</t>
+          <t>0.000969</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>0.0966</t>
+          <t>0.0648009</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>0.188408</t>
+          <t>0.15669</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
@@ -9040,12 +9040,12 @@
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.5822</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48.8855</t>
         </is>
       </c>
     </row>
@@ -9067,7 +9067,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -9078,12 +9078,12 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>2.4e-05</t>
+          <t>2e-05</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>0.000394</t>
+          <t>0.001044</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -9093,22 +9093,22 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>0.000116</t>
+          <t>0.000106</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>0.000534</t>
+          <t>0.00117</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>0.0997009</t>
+          <t>0.0643509</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>0.178764</t>
+          <t>0.157015</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
@@ -9128,12 +9128,12 @@
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.5377</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48.2311</t>
         </is>
       </c>
     </row>
@@ -9166,12 +9166,12 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1.3e-05</t>
+          <t>1.6e-05</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>0.000376</t>
+          <t>0.001046</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -9181,22 +9181,22 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>9.7e-05</t>
+          <t>5e-05</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>0.000486</t>
+          <t>0.001112</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>0.087727</t>
+          <t>0.0608799</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>0.165152</t>
+          <t>0.156436</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
@@ -9243,7 +9243,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -9254,12 +9254,12 @@
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1.4e-05</t>
+          <t>3.5e-05</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>0.000415</t>
+          <t>0.000869</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -9269,22 +9269,22 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>0.0001</t>
+          <t>0.000101</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>0.000529</t>
+          <t>0.001005</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>0.093883</t>
+          <t>0.05748</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>0.173531</t>
+          <t>0.151641</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
@@ -9304,12 +9304,12 @@
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.4936</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>48.8655</t>
         </is>
       </c>
     </row>
